--- a/configs/ConfigInfo.xlsx
+++ b/configs/ConfigInfo.xlsx
@@ -162,13 +162,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="B5 B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="139.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="139.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
